--- a/tutorial/supply/tests/supplier_excel_data/主机数据表.xlsx
+++ b/tutorial/supply/tests/supplier_excel_data/主机数据表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengzhenbo/Library/Mobile Documents/com~apple~CloudDocs/04Project/ElevatorCertificate/ElevatorCertificate/tutorial/supply/供应商数据表/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengzhenbo/Library/Mobile Documents/com~apple~CloudDocs/04Project/ElevatorCertificate/ElevatorCertificate/tutorial/supply/tests/supplier_excel_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20880FDB-1325-8947-B2C9-8C62F3529393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738DCA78-11E2-0348-B942-2A30B24FC4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39020" yWindow="2280" windowWidth="28180" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7100" yWindow="520" windowWidth="24260" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主机数据" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>合同号</t>
   </si>
@@ -169,6 +169,18 @@
   </si>
   <si>
     <t>2023.7.29</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品型号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号2</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -750,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:W119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K2" workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9"/>
+    <sheetView tabSelected="1" topLeftCell="L2" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -879,13 +891,13 @@
         <v>20</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="T4" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="U4" s="9" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="V4" s="8" t="s">
         <v>15</v>

--- a/tutorial/supply/tests/supplier_excel_data/主机数据表.xlsx
+++ b/tutorial/supply/tests/supplier_excel_data/主机数据表.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengzhenbo/Library/Mobile Documents/com~apple~CloudDocs/04Project/ElevatorCertificate/ElevatorCertificate/tutorial/supply/tests/supplier_excel_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feng.tingting\Desktop\新建文件夹\supplier_excel_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738DCA78-11E2-0348-B942-2A30B24FC4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7100" yWindow="520" windowWidth="24260" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7095" yWindow="525" windowWidth="24255" windowHeight="17535"/>
   </bookViews>
   <sheets>
     <sheet name="主机数据" sheetId="1" r:id="rId1"/>
@@ -29,7 +28,7 @@
     <definedName name="_MT207">主机数据!$B$5:$N$114</definedName>
     <definedName name="_SF7084">主机数据!$F$119</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>合同号</t>
   </si>
@@ -63,21 +62,6 @@
   </si>
   <si>
     <t>ZJ230722012</t>
-  </si>
-  <si>
-    <t>XZPBK1201046219</t>
-  </si>
-  <si>
-    <t>Vito</t>
-  </si>
-  <si>
-    <t>202307220476</t>
-  </si>
-  <si>
-    <t>202307220476-1</t>
-  </si>
-  <si>
-    <t>202307220476-2</t>
   </si>
   <si>
     <t>制造单位名称</t>
@@ -104,14 +88,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>TSX B37002720170016</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.7.25</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>主机信息</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -132,14 +108,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>TSX F35003820190055</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.7.25</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>制动器信息</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -148,14 +116,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ZSD1-770</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TSX F38002720220091</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>制动器编号1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -168,10 +128,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>2023.7.29</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>产品型号</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -181,13 +137,60 @@
   </si>
   <si>
     <t>编号2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>XZ22230535</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vito3.0G</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>202308280286</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSX B37002720180018</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.8.30</t>
+  </si>
+  <si>
+    <t>DZD2</t>
+  </si>
+  <si>
+    <t>DZD2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>XG100427</t>
+  </si>
+  <si>
+    <t>XG100428</t>
+  </si>
+  <si>
+    <t>TSX F35002720220017</t>
+  </si>
+  <si>
+    <t>TSX F35002720220017</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.8.30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.8.30</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -424,7 +427,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -440,7 +443,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -515,23 +518,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -567,23 +553,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -759,33 +728,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L2" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="0.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="4.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="21.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="14" style="2" customWidth="1"/>
-    <col min="8" max="8" width="23.83203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="23.875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.375" style="2" customWidth="1"/>
     <col min="10" max="10" width="20.5" style="2" customWidth="1"/>
-    <col min="11" max="11" width="32.1640625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="16.83203125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="18.83203125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="15.1640625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="21.33203125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="26.1640625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="20.33203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="32.125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="16.875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="18.875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="15.125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21.375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="26.125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="20.375" style="2" customWidth="1"/>
     <col min="19" max="19" width="13.5" style="2" customWidth="1"/>
     <col min="20" max="21" width="9" style="2"/>
     <col min="22" max="22" width="14" style="2" customWidth="1"/>
@@ -812,7 +781,7 @@
     </row>
     <row r="3" spans="2:23" ht="25.5" customHeight="1">
       <c r="D3" s="14" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
@@ -820,7 +789,7 @@
       <c r="H3" s="14"/>
       <c r="I3" s="15"/>
       <c r="J3" s="13" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
@@ -829,7 +798,7 @@
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
       <c r="Q3" s="13" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="R3" s="13"/>
       <c r="S3" s="13"/>
@@ -838,7 +807,7 @@
       <c r="V3" s="13"/>
       <c r="W3" s="13"/>
     </row>
-    <row r="4" spans="2:23" ht="51.5" customHeight="1">
+    <row r="4" spans="2:23" ht="51.6" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
@@ -846,136 +815,136 @@
         <v>0</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="H4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="M4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="O4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="9" t="s">
+      <c r="Q4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" s="9" t="s">
+      <c r="T4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q4" s="8" t="s">
+      <c r="U4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="S4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="T4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="U4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="V4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="W4" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="2:23" ht="24.5" customHeight="1">
+    </row>
+    <row r="5" spans="2:23" ht="24.6" customHeight="1">
       <c r="B5" s="10">
         <f t="shared" ref="B5" si="0">IF(C5="","",ROW()-4)</f>
         <v>1</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="11" t="s">
+      <c r="L5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="11" t="s">
+      <c r="R5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="R5" s="11" t="s">
-        <v>27</v>
-      </c>
       <c r="S5" s="11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="T5" s="11" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="U5" s="11" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="V5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="W5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="W5" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="2:23" ht="24.5" customHeight="1">
+    </row>
+    <row r="6" spans="2:23" ht="24.6" customHeight="1">
       <c r="B6" s="10"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -999,7 +968,7 @@
       <c r="V6" s="12"/>
       <c r="W6" s="12"/>
     </row>
-    <row r="7" spans="2:23" ht="24.5" customHeight="1">
+    <row r="7" spans="2:23" ht="24.6" customHeight="1">
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -1023,7 +992,7 @@
       <c r="V7" s="12"/>
       <c r="W7" s="12"/>
     </row>
-    <row r="8" spans="2:23" ht="24.5" customHeight="1">
+    <row r="8" spans="2:23" ht="24.6" customHeight="1">
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -1047,7 +1016,7 @@
       <c r="V8" s="12"/>
       <c r="W8" s="12"/>
     </row>
-    <row r="9" spans="2:23" ht="24.5" customHeight="1">
+    <row r="9" spans="2:23" ht="24.6" customHeight="1">
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -1071,7 +1040,7 @@
       <c r="V9" s="12"/>
       <c r="W9" s="12"/>
     </row>
-    <row r="10" spans="2:23" ht="24.5" customHeight="1">
+    <row r="10" spans="2:23" ht="24.6" customHeight="1">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -1095,7 +1064,7 @@
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
     </row>
-    <row r="11" spans="2:23" ht="24.5" customHeight="1">
+    <row r="11" spans="2:23" ht="24.6" customHeight="1">
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -1119,7 +1088,7 @@
       <c r="V11" s="12"/>
       <c r="W11" s="12"/>
     </row>
-    <row r="12" spans="2:23" ht="24.5" customHeight="1">
+    <row r="12" spans="2:23" ht="24.6" customHeight="1">
       <c r="B12" s="10"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -1143,7 +1112,7 @@
       <c r="V12" s="12"/>
       <c r="W12" s="12"/>
     </row>
-    <row r="13" spans="2:23" ht="24.5" customHeight="1">
+    <row r="13" spans="2:23" ht="24.6" customHeight="1">
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -1167,7 +1136,7 @@
       <c r="V13" s="12"/>
       <c r="W13" s="12"/>
     </row>
-    <row r="14" spans="2:23" ht="24.5" customHeight="1">
+    <row r="14" spans="2:23" ht="24.6" customHeight="1">
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -1191,7 +1160,7 @@
       <c r="V14" s="12"/>
       <c r="W14" s="12"/>
     </row>
-    <row r="15" spans="2:23" ht="24.5" customHeight="1">
+    <row r="15" spans="2:23" ht="24.6" customHeight="1">
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -1215,7 +1184,7 @@
       <c r="V15" s="12"/>
       <c r="W15" s="12"/>
     </row>
-    <row r="16" spans="2:23" ht="24.5" customHeight="1">
+    <row r="16" spans="2:23" ht="24.6" customHeight="1">
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -1239,7 +1208,7 @@
       <c r="V16" s="12"/>
       <c r="W16" s="12"/>
     </row>
-    <row r="17" spans="2:23" ht="24.5" customHeight="1">
+    <row r="17" spans="2:23" ht="24.6" customHeight="1">
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -1263,7 +1232,7 @@
       <c r="V17" s="12"/>
       <c r="W17" s="12"/>
     </row>
-    <row r="18" spans="2:23" ht="24.5" customHeight="1">
+    <row r="18" spans="2:23" ht="24.6" customHeight="1">
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -1287,7 +1256,7 @@
       <c r="V18" s="12"/>
       <c r="W18" s="12"/>
     </row>
-    <row r="19" spans="2:23" ht="24.5" customHeight="1">
+    <row r="19" spans="2:23" ht="24.6" customHeight="1">
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -1311,7 +1280,7 @@
       <c r="V19" s="12"/>
       <c r="W19" s="12"/>
     </row>
-    <row r="20" spans="2:23" ht="24.5" customHeight="1">
+    <row r="20" spans="2:23" ht="24.6" customHeight="1">
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -1335,7 +1304,7 @@
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
     </row>
-    <row r="21" spans="2:23" ht="24.5" customHeight="1">
+    <row r="21" spans="2:23" ht="24.6" customHeight="1">
       <c r="B21" s="10"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
@@ -1359,7 +1328,7 @@
       <c r="V21" s="12"/>
       <c r="W21" s="12"/>
     </row>
-    <row r="22" spans="2:23" ht="24.5" customHeight="1">
+    <row r="22" spans="2:23" ht="24.6" customHeight="1">
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -1383,7 +1352,7 @@
       <c r="V22" s="12"/>
       <c r="W22" s="12"/>
     </row>
-    <row r="23" spans="2:23" ht="24.5" customHeight="1">
+    <row r="23" spans="2:23" ht="24.6" customHeight="1">
       <c r="B23" s="10"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -1407,7 +1376,7 @@
       <c r="V23" s="12"/>
       <c r="W23" s="12"/>
     </row>
-    <row r="24" spans="2:23" ht="24.5" customHeight="1">
+    <row r="24" spans="2:23" ht="24.6" customHeight="1">
       <c r="B24" s="10"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -1431,7 +1400,7 @@
       <c r="V24" s="12"/>
       <c r="W24" s="12"/>
     </row>
-    <row r="25" spans="2:23" ht="24.5" customHeight="1">
+    <row r="25" spans="2:23" ht="24.6" customHeight="1">
       <c r="B25" s="10"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -1455,7 +1424,7 @@
       <c r="V25" s="12"/>
       <c r="W25" s="12"/>
     </row>
-    <row r="26" spans="2:23" ht="24.5" customHeight="1">
+    <row r="26" spans="2:23" ht="24.6" customHeight="1">
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -1479,7 +1448,7 @@
       <c r="V26" s="12"/>
       <c r="W26" s="12"/>
     </row>
-    <row r="27" spans="2:23" ht="24.5" customHeight="1">
+    <row r="27" spans="2:23" ht="24.6" customHeight="1">
       <c r="B27" s="10"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -1503,7 +1472,7 @@
       <c r="V27" s="12"/>
       <c r="W27" s="12"/>
     </row>
-    <row r="28" spans="2:23" ht="24.5" customHeight="1">
+    <row r="28" spans="2:23" ht="24.6" customHeight="1">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
@@ -1527,7 +1496,7 @@
       <c r="V28" s="12"/>
       <c r="W28" s="12"/>
     </row>
-    <row r="29" spans="2:23" ht="24.5" customHeight="1">
+    <row r="29" spans="2:23" ht="24.6" customHeight="1">
       <c r="B29" s="10"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
@@ -1551,7 +1520,7 @@
       <c r="V29" s="12"/>
       <c r="W29" s="12"/>
     </row>
-    <row r="30" spans="2:23" ht="24.5" customHeight="1">
+    <row r="30" spans="2:23" ht="24.6" customHeight="1">
       <c r="B30" s="10"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -1575,7 +1544,7 @@
       <c r="V30" s="12"/>
       <c r="W30" s="12"/>
     </row>
-    <row r="31" spans="2:23" ht="24.5" customHeight="1">
+    <row r="31" spans="2:23" ht="24.6" customHeight="1">
       <c r="B31" s="10"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -1599,7 +1568,7 @@
       <c r="V31" s="12"/>
       <c r="W31" s="12"/>
     </row>
-    <row r="32" spans="2:23" ht="24.5" customHeight="1">
+    <row r="32" spans="2:23" ht="24.6" customHeight="1">
       <c r="B32" s="10"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -1623,7 +1592,7 @@
       <c r="V32" s="12"/>
       <c r="W32" s="12"/>
     </row>
-    <row r="33" spans="2:23" ht="24.5" customHeight="1">
+    <row r="33" spans="2:23" ht="24.6" customHeight="1">
       <c r="B33" s="10"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -1647,7 +1616,7 @@
       <c r="V33" s="12"/>
       <c r="W33" s="12"/>
     </row>
-    <row r="34" spans="2:23" ht="24.5" customHeight="1">
+    <row r="34" spans="2:23" ht="24.6" customHeight="1">
       <c r="B34" s="10"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
@@ -1671,7 +1640,7 @@
       <c r="V34" s="12"/>
       <c r="W34" s="12"/>
     </row>
-    <row r="35" spans="2:23" ht="24.5" customHeight="1">
+    <row r="35" spans="2:23" ht="24.6" customHeight="1">
       <c r="B35" s="10"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
@@ -1695,7 +1664,7 @@
       <c r="V35" s="12"/>
       <c r="W35" s="12"/>
     </row>
-    <row r="36" spans="2:23" ht="24.5" customHeight="1">
+    <row r="36" spans="2:23" ht="24.6" customHeight="1">
       <c r="B36" s="10"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
@@ -1719,7 +1688,7 @@
       <c r="V36" s="12"/>
       <c r="W36" s="12"/>
     </row>
-    <row r="37" spans="2:23" ht="24.5" customHeight="1">
+    <row r="37" spans="2:23" ht="24.6" customHeight="1">
       <c r="B37" s="10"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
@@ -1743,7 +1712,7 @@
       <c r="V37" s="12"/>
       <c r="W37" s="12"/>
     </row>
-    <row r="38" spans="2:23" ht="24.5" customHeight="1">
+    <row r="38" spans="2:23" ht="24.6" customHeight="1">
       <c r="B38" s="10"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
@@ -1767,7 +1736,7 @@
       <c r="V38" s="12"/>
       <c r="W38" s="12"/>
     </row>
-    <row r="39" spans="2:23" ht="24.5" customHeight="1">
+    <row r="39" spans="2:23" ht="24.6" customHeight="1">
       <c r="B39" s="10"/>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
@@ -1791,7 +1760,7 @@
       <c r="V39" s="12"/>
       <c r="W39" s="12"/>
     </row>
-    <row r="40" spans="2:23" ht="24.5" customHeight="1">
+    <row r="40" spans="2:23" ht="24.6" customHeight="1">
       <c r="B40" s="10"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
@@ -1815,7 +1784,7 @@
       <c r="V40" s="12"/>
       <c r="W40" s="12"/>
     </row>
-    <row r="41" spans="2:23" ht="24.5" customHeight="1">
+    <row r="41" spans="2:23" ht="24.6" customHeight="1">
       <c r="B41" s="10"/>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
@@ -1839,7 +1808,7 @@
       <c r="V41" s="12"/>
       <c r="W41" s="12"/>
     </row>
-    <row r="42" spans="2:23" ht="24.5" customHeight="1">
+    <row r="42" spans="2:23" ht="24.6" customHeight="1">
       <c r="B42" s="10"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
@@ -1863,7 +1832,7 @@
       <c r="V42" s="12"/>
       <c r="W42" s="12"/>
     </row>
-    <row r="43" spans="2:23" ht="24.5" customHeight="1">
+    <row r="43" spans="2:23" ht="24.6" customHeight="1">
       <c r="B43" s="10"/>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
@@ -1887,7 +1856,7 @@
       <c r="V43" s="12"/>
       <c r="W43" s="12"/>
     </row>
-    <row r="44" spans="2:23" ht="24.5" customHeight="1">
+    <row r="44" spans="2:23" ht="24.6" customHeight="1">
       <c r="B44" s="10"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
@@ -1911,7 +1880,7 @@
       <c r="V44" s="12"/>
       <c r="W44" s="12"/>
     </row>
-    <row r="45" spans="2:23" ht="24.5" customHeight="1">
+    <row r="45" spans="2:23" ht="24.6" customHeight="1">
       <c r="B45" s="10"/>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
@@ -1935,7 +1904,7 @@
       <c r="V45" s="12"/>
       <c r="W45" s="12"/>
     </row>
-    <row r="46" spans="2:23" ht="24.5" customHeight="1">
+    <row r="46" spans="2:23" ht="24.6" customHeight="1">
       <c r="B46" s="10"/>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
@@ -1959,7 +1928,7 @@
       <c r="V46" s="12"/>
       <c r="W46" s="12"/>
     </row>
-    <row r="47" spans="2:23" ht="24.5" customHeight="1">
+    <row r="47" spans="2:23" ht="24.6" customHeight="1">
       <c r="B47" s="10"/>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
@@ -1983,7 +1952,7 @@
       <c r="V47" s="12"/>
       <c r="W47" s="12"/>
     </row>
-    <row r="48" spans="2:23" ht="24.5" customHeight="1">
+    <row r="48" spans="2:23" ht="24.6" customHeight="1">
       <c r="B48" s="10"/>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
@@ -2007,7 +1976,7 @@
       <c r="V48" s="12"/>
       <c r="W48" s="12"/>
     </row>
-    <row r="49" spans="2:23" ht="24.5" customHeight="1">
+    <row r="49" spans="2:23" ht="24.6" customHeight="1">
       <c r="B49" s="10"/>
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
@@ -2031,7 +2000,7 @@
       <c r="V49" s="12"/>
       <c r="W49" s="12"/>
     </row>
-    <row r="50" spans="2:23" ht="24.5" customHeight="1">
+    <row r="50" spans="2:23" ht="24.6" customHeight="1">
       <c r="B50" s="10"/>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
@@ -2055,7 +2024,7 @@
       <c r="V50" s="12"/>
       <c r="W50" s="12"/>
     </row>
-    <row r="51" spans="2:23" ht="24.5" customHeight="1">
+    <row r="51" spans="2:23" ht="24.6" customHeight="1">
       <c r="B51" s="10"/>
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
@@ -2079,7 +2048,7 @@
       <c r="V51" s="12"/>
       <c r="W51" s="12"/>
     </row>
-    <row r="52" spans="2:23" ht="24.5" customHeight="1">
+    <row r="52" spans="2:23" ht="24.6" customHeight="1">
       <c r="B52" s="10"/>
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
@@ -2103,7 +2072,7 @@
       <c r="V52" s="12"/>
       <c r="W52" s="12"/>
     </row>
-    <row r="53" spans="2:23" ht="24.5" customHeight="1">
+    <row r="53" spans="2:23" ht="24.6" customHeight="1">
       <c r="B53" s="10"/>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
@@ -2127,7 +2096,7 @@
       <c r="V53" s="12"/>
       <c r="W53" s="12"/>
     </row>
-    <row r="54" spans="2:23" ht="24.5" customHeight="1">
+    <row r="54" spans="2:23" ht="24.6" customHeight="1">
       <c r="B54" s="10"/>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
@@ -2151,7 +2120,7 @@
       <c r="V54" s="12"/>
       <c r="W54" s="12"/>
     </row>
-    <row r="55" spans="2:23" ht="24.5" customHeight="1">
+    <row r="55" spans="2:23" ht="24.6" customHeight="1">
       <c r="B55" s="10"/>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
@@ -2175,7 +2144,7 @@
       <c r="V55" s="12"/>
       <c r="W55" s="12"/>
     </row>
-    <row r="56" spans="2:23" ht="24.5" customHeight="1">
+    <row r="56" spans="2:23" ht="24.6" customHeight="1">
       <c r="B56" s="10"/>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
@@ -2199,7 +2168,7 @@
       <c r="V56" s="12"/>
       <c r="W56" s="12"/>
     </row>
-    <row r="57" spans="2:23" ht="24.5" customHeight="1">
+    <row r="57" spans="2:23" ht="24.6" customHeight="1">
       <c r="B57" s="10"/>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
@@ -2223,7 +2192,7 @@
       <c r="V57" s="12"/>
       <c r="W57" s="12"/>
     </row>
-    <row r="58" spans="2:23" ht="24.5" customHeight="1">
+    <row r="58" spans="2:23" ht="24.6" customHeight="1">
       <c r="B58" s="10"/>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
@@ -2247,7 +2216,7 @@
       <c r="V58" s="12"/>
       <c r="W58" s="12"/>
     </row>
-    <row r="59" spans="2:23" ht="24.5" customHeight="1">
+    <row r="59" spans="2:23" ht="24.6" customHeight="1">
       <c r="B59" s="10"/>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
@@ -2271,7 +2240,7 @@
       <c r="V59" s="12"/>
       <c r="W59" s="12"/>
     </row>
-    <row r="60" spans="2:23" ht="24.5" customHeight="1">
+    <row r="60" spans="2:23" ht="24.6" customHeight="1">
       <c r="B60" s="10"/>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
@@ -2295,7 +2264,7 @@
       <c r="V60" s="12"/>
       <c r="W60" s="12"/>
     </row>
-    <row r="61" spans="2:23" ht="24.5" customHeight="1">
+    <row r="61" spans="2:23" ht="24.6" customHeight="1">
       <c r="B61" s="10"/>
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
@@ -2319,7 +2288,7 @@
       <c r="V61" s="12"/>
       <c r="W61" s="12"/>
     </row>
-    <row r="62" spans="2:23" ht="24.5" customHeight="1">
+    <row r="62" spans="2:23" ht="24.6" customHeight="1">
       <c r="B62" s="10"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
@@ -2343,7 +2312,7 @@
       <c r="V62" s="12"/>
       <c r="W62" s="12"/>
     </row>
-    <row r="63" spans="2:23" ht="24.5" customHeight="1">
+    <row r="63" spans="2:23" ht="24.6" customHeight="1">
       <c r="B63" s="10"/>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
@@ -2367,7 +2336,7 @@
       <c r="V63" s="12"/>
       <c r="W63" s="12"/>
     </row>
-    <row r="64" spans="2:23" ht="24.5" customHeight="1">
+    <row r="64" spans="2:23" ht="24.6" customHeight="1">
       <c r="B64" s="10"/>
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
@@ -2391,7 +2360,7 @@
       <c r="V64" s="12"/>
       <c r="W64" s="12"/>
     </row>
-    <row r="65" spans="2:23" ht="24.5" customHeight="1">
+    <row r="65" spans="2:23" ht="24.6" customHeight="1">
       <c r="B65" s="10"/>
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
@@ -2415,7 +2384,7 @@
       <c r="V65" s="12"/>
       <c r="W65" s="12"/>
     </row>
-    <row r="66" spans="2:23" ht="24.5" customHeight="1">
+    <row r="66" spans="2:23" ht="24.6" customHeight="1">
       <c r="B66" s="10"/>
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
@@ -2439,7 +2408,7 @@
       <c r="V66" s="12"/>
       <c r="W66" s="12"/>
     </row>
-    <row r="67" spans="2:23" ht="24.5" customHeight="1">
+    <row r="67" spans="2:23" ht="24.6" customHeight="1">
       <c r="B67" s="10"/>
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
@@ -2463,7 +2432,7 @@
       <c r="V67" s="12"/>
       <c r="W67" s="12"/>
     </row>
-    <row r="68" spans="2:23" ht="24.5" customHeight="1">
+    <row r="68" spans="2:23" ht="24.6" customHeight="1">
       <c r="B68" s="10"/>
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
@@ -2487,7 +2456,7 @@
       <c r="V68" s="12"/>
       <c r="W68" s="12"/>
     </row>
-    <row r="69" spans="2:23" ht="24.5" customHeight="1">
+    <row r="69" spans="2:23" ht="24.6" customHeight="1">
       <c r="B69" s="10"/>
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
@@ -2511,7 +2480,7 @@
       <c r="V69" s="12"/>
       <c r="W69" s="12"/>
     </row>
-    <row r="70" spans="2:23" ht="24.5" customHeight="1">
+    <row r="70" spans="2:23" ht="24.6" customHeight="1">
       <c r="B70" s="10"/>
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
@@ -2535,7 +2504,7 @@
       <c r="V70" s="12"/>
       <c r="W70" s="12"/>
     </row>
-    <row r="71" spans="2:23" ht="24.5" customHeight="1">
+    <row r="71" spans="2:23" ht="24.6" customHeight="1">
       <c r="B71" s="10"/>
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
@@ -2559,7 +2528,7 @@
       <c r="V71" s="12"/>
       <c r="W71" s="12"/>
     </row>
-    <row r="72" spans="2:23" ht="24.5" customHeight="1">
+    <row r="72" spans="2:23" ht="24.6" customHeight="1">
       <c r="B72" s="10"/>
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
@@ -2583,7 +2552,7 @@
       <c r="V72" s="12"/>
       <c r="W72" s="12"/>
     </row>
-    <row r="73" spans="2:23" ht="24.5" customHeight="1">
+    <row r="73" spans="2:23" ht="24.6" customHeight="1">
       <c r="B73" s="10"/>
       <c r="C73" s="11"/>
       <c r="D73" s="11"/>
@@ -2607,7 +2576,7 @@
       <c r="V73" s="12"/>
       <c r="W73" s="12"/>
     </row>
-    <row r="74" spans="2:23" ht="24.5" customHeight="1">
+    <row r="74" spans="2:23" ht="24.6" customHeight="1">
       <c r="B74" s="10"/>
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
@@ -2631,7 +2600,7 @@
       <c r="V74" s="12"/>
       <c r="W74" s="12"/>
     </row>
-    <row r="75" spans="2:23" ht="24.5" customHeight="1">
+    <row r="75" spans="2:23" ht="24.6" customHeight="1">
       <c r="B75" s="10"/>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
@@ -2655,7 +2624,7 @@
       <c r="V75" s="12"/>
       <c r="W75" s="12"/>
     </row>
-    <row r="76" spans="2:23" ht="24.5" customHeight="1">
+    <row r="76" spans="2:23" ht="24.6" customHeight="1">
       <c r="B76" s="10"/>
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
@@ -2679,7 +2648,7 @@
       <c r="V76" s="12"/>
       <c r="W76" s="12"/>
     </row>
-    <row r="77" spans="2:23" ht="24.5" customHeight="1">
+    <row r="77" spans="2:23" ht="24.6" customHeight="1">
       <c r="B77" s="10"/>
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
@@ -2703,7 +2672,7 @@
       <c r="V77" s="12"/>
       <c r="W77" s="12"/>
     </row>
-    <row r="78" spans="2:23" ht="24.5" customHeight="1">
+    <row r="78" spans="2:23" ht="24.6" customHeight="1">
       <c r="B78" s="10"/>
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
@@ -2727,7 +2696,7 @@
       <c r="V78" s="12"/>
       <c r="W78" s="12"/>
     </row>
-    <row r="79" spans="2:23" ht="24.5" customHeight="1">
+    <row r="79" spans="2:23" ht="24.6" customHeight="1">
       <c r="B79" s="10"/>
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
@@ -2751,7 +2720,7 @@
       <c r="V79" s="12"/>
       <c r="W79" s="12"/>
     </row>
-    <row r="80" spans="2:23" ht="24.5" customHeight="1">
+    <row r="80" spans="2:23" ht="24.6" customHeight="1">
       <c r="B80" s="10"/>
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
@@ -2775,7 +2744,7 @@
       <c r="V80" s="12"/>
       <c r="W80" s="12"/>
     </row>
-    <row r="81" spans="2:23" ht="24.5" customHeight="1">
+    <row r="81" spans="2:23" ht="24.6" customHeight="1">
       <c r="B81" s="10"/>
       <c r="C81" s="11"/>
       <c r="D81" s="11"/>
@@ -2799,7 +2768,7 @@
       <c r="V81" s="12"/>
       <c r="W81" s="12"/>
     </row>
-    <row r="82" spans="2:23" ht="24.5" customHeight="1">
+    <row r="82" spans="2:23" ht="24.6" customHeight="1">
       <c r="B82" s="10"/>
       <c r="C82" s="11"/>
       <c r="D82" s="11"/>
@@ -2823,7 +2792,7 @@
       <c r="V82" s="12"/>
       <c r="W82" s="12"/>
     </row>
-    <row r="83" spans="2:23" ht="24.5" customHeight="1">
+    <row r="83" spans="2:23" ht="24.6" customHeight="1">
       <c r="B83" s="10"/>
       <c r="C83" s="11"/>
       <c r="D83" s="11"/>
@@ -2847,7 +2816,7 @@
       <c r="V83" s="12"/>
       <c r="W83" s="12"/>
     </row>
-    <row r="84" spans="2:23" ht="24.5" customHeight="1">
+    <row r="84" spans="2:23" ht="24.6" customHeight="1">
       <c r="B84" s="10"/>
       <c r="C84" s="11"/>
       <c r="D84" s="11"/>
@@ -2871,7 +2840,7 @@
       <c r="V84" s="12"/>
       <c r="W84" s="12"/>
     </row>
-    <row r="85" spans="2:23" ht="24.5" customHeight="1">
+    <row r="85" spans="2:23" ht="24.6" customHeight="1">
       <c r="B85" s="10"/>
       <c r="C85" s="11"/>
       <c r="D85" s="11"/>
@@ -2895,7 +2864,7 @@
       <c r="V85" s="12"/>
       <c r="W85" s="12"/>
     </row>
-    <row r="86" spans="2:23" ht="24.5" customHeight="1">
+    <row r="86" spans="2:23" ht="24.6" customHeight="1">
       <c r="B86" s="10"/>
       <c r="C86" s="11"/>
       <c r="D86" s="11"/>
@@ -2919,7 +2888,7 @@
       <c r="V86" s="12"/>
       <c r="W86" s="12"/>
     </row>
-    <row r="87" spans="2:23" ht="24.5" customHeight="1">
+    <row r="87" spans="2:23" ht="24.6" customHeight="1">
       <c r="B87" s="10"/>
       <c r="C87" s="11"/>
       <c r="D87" s="11"/>
@@ -2943,7 +2912,7 @@
       <c r="V87" s="12"/>
       <c r="W87" s="12"/>
     </row>
-    <row r="88" spans="2:23" ht="24.5" customHeight="1">
+    <row r="88" spans="2:23" ht="24.6" customHeight="1">
       <c r="B88" s="10"/>
       <c r="C88" s="11"/>
       <c r="D88" s="11"/>
@@ -2967,7 +2936,7 @@
       <c r="V88" s="12"/>
       <c r="W88" s="12"/>
     </row>
-    <row r="89" spans="2:23" ht="24.5" customHeight="1">
+    <row r="89" spans="2:23" ht="24.6" customHeight="1">
       <c r="B89" s="10"/>
       <c r="C89" s="11"/>
       <c r="D89" s="11"/>
@@ -2991,7 +2960,7 @@
       <c r="V89" s="12"/>
       <c r="W89" s="12"/>
     </row>
-    <row r="90" spans="2:23" ht="24.5" customHeight="1">
+    <row r="90" spans="2:23" ht="24.6" customHeight="1">
       <c r="B90" s="10"/>
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
@@ -3015,7 +2984,7 @@
       <c r="V90" s="12"/>
       <c r="W90" s="12"/>
     </row>
-    <row r="91" spans="2:23" ht="24.5" customHeight="1">
+    <row r="91" spans="2:23" ht="24.6" customHeight="1">
       <c r="B91" s="10"/>
       <c r="C91" s="11"/>
       <c r="D91" s="11"/>
@@ -3039,7 +3008,7 @@
       <c r="V91" s="12"/>
       <c r="W91" s="12"/>
     </row>
-    <row r="92" spans="2:23" ht="24.5" customHeight="1">
+    <row r="92" spans="2:23" ht="24.6" customHeight="1">
       <c r="B92" s="10"/>
       <c r="C92" s="11"/>
       <c r="D92" s="11"/>
@@ -3063,7 +3032,7 @@
       <c r="V92" s="12"/>
       <c r="W92" s="12"/>
     </row>
-    <row r="93" spans="2:23" ht="24.5" customHeight="1">
+    <row r="93" spans="2:23" ht="24.6" customHeight="1">
       <c r="B93" s="10"/>
       <c r="C93" s="11"/>
       <c r="D93" s="11"/>
@@ -3087,7 +3056,7 @@
       <c r="V93" s="12"/>
       <c r="W93" s="12"/>
     </row>
-    <row r="94" spans="2:23" ht="24.5" customHeight="1">
+    <row r="94" spans="2:23" ht="24.6" customHeight="1">
       <c r="B94" s="10"/>
       <c r="C94" s="11"/>
       <c r="D94" s="11"/>
@@ -3111,7 +3080,7 @@
       <c r="V94" s="12"/>
       <c r="W94" s="12"/>
     </row>
-    <row r="95" spans="2:23" ht="24.5" customHeight="1">
+    <row r="95" spans="2:23" ht="24.6" customHeight="1">
       <c r="B95" s="10"/>
       <c r="C95" s="11"/>
       <c r="D95" s="11"/>
@@ -3135,7 +3104,7 @@
       <c r="V95" s="12"/>
       <c r="W95" s="12"/>
     </row>
-    <row r="96" spans="2:23" ht="24.5" customHeight="1">
+    <row r="96" spans="2:23" ht="24.6" customHeight="1">
       <c r="B96" s="10"/>
       <c r="C96" s="11"/>
       <c r="D96" s="11"/>
@@ -3159,7 +3128,7 @@
       <c r="V96" s="12"/>
       <c r="W96" s="12"/>
     </row>
-    <row r="97" spans="2:23" ht="24.5" customHeight="1">
+    <row r="97" spans="2:23" ht="24.6" customHeight="1">
       <c r="B97" s="10"/>
       <c r="C97" s="11"/>
       <c r="D97" s="11"/>
@@ -3183,7 +3152,7 @@
       <c r="V97" s="12"/>
       <c r="W97" s="12"/>
     </row>
-    <row r="98" spans="2:23" ht="24.5" customHeight="1">
+    <row r="98" spans="2:23" ht="24.6" customHeight="1">
       <c r="B98" s="10"/>
       <c r="C98" s="11"/>
       <c r="D98" s="11"/>
@@ -3207,7 +3176,7 @@
       <c r="V98" s="12"/>
       <c r="W98" s="12"/>
     </row>
-    <row r="99" spans="2:23" ht="24.5" customHeight="1">
+    <row r="99" spans="2:23" ht="24.6" customHeight="1">
       <c r="B99" s="10"/>
       <c r="C99" s="11"/>
       <c r="D99" s="11"/>
@@ -3231,7 +3200,7 @@
       <c r="V99" s="12"/>
       <c r="W99" s="12"/>
     </row>
-    <row r="100" spans="2:23" ht="24.5" customHeight="1">
+    <row r="100" spans="2:23" ht="24.6" customHeight="1">
       <c r="B100" s="10"/>
       <c r="C100" s="11"/>
       <c r="D100" s="11"/>
@@ -3255,7 +3224,7 @@
       <c r="V100" s="12"/>
       <c r="W100" s="12"/>
     </row>
-    <row r="101" spans="2:23" ht="24.5" customHeight="1">
+    <row r="101" spans="2:23" ht="24.6" customHeight="1">
       <c r="B101" s="10"/>
       <c r="C101" s="11"/>
       <c r="D101" s="11"/>
@@ -3279,7 +3248,7 @@
       <c r="V101" s="12"/>
       <c r="W101" s="12"/>
     </row>
-    <row r="102" spans="2:23" ht="24.5" customHeight="1">
+    <row r="102" spans="2:23" ht="24.6" customHeight="1">
       <c r="B102" s="10"/>
       <c r="C102" s="11"/>
       <c r="D102" s="11"/>
@@ -3303,7 +3272,7 @@
       <c r="V102" s="12"/>
       <c r="W102" s="12"/>
     </row>
-    <row r="103" spans="2:23" ht="24.5" customHeight="1">
+    <row r="103" spans="2:23" ht="24.6" customHeight="1">
       <c r="B103" s="10"/>
       <c r="C103" s="11"/>
       <c r="D103" s="11"/>
@@ -3327,7 +3296,7 @@
       <c r="V103" s="12"/>
       <c r="W103" s="12"/>
     </row>
-    <row r="104" spans="2:23" ht="24.5" customHeight="1">
+    <row r="104" spans="2:23" ht="24.6" customHeight="1">
       <c r="B104" s="10"/>
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
@@ -3351,7 +3320,7 @@
       <c r="V104" s="12"/>
       <c r="W104" s="12"/>
     </row>
-    <row r="105" spans="2:23" ht="24.5" customHeight="1">
+    <row r="105" spans="2:23" ht="24.6" customHeight="1">
       <c r="B105" s="10"/>
       <c r="C105" s="11"/>
       <c r="D105" s="11"/>
@@ -3375,7 +3344,7 @@
       <c r="V105" s="12"/>
       <c r="W105" s="12"/>
     </row>
-    <row r="106" spans="2:23" ht="24.5" customHeight="1">
+    <row r="106" spans="2:23" ht="24.6" customHeight="1">
       <c r="B106" s="10"/>
       <c r="C106" s="11"/>
       <c r="D106" s="11"/>
@@ -3399,7 +3368,7 @@
       <c r="V106" s="12"/>
       <c r="W106" s="12"/>
     </row>
-    <row r="107" spans="2:23" ht="24.5" customHeight="1">
+    <row r="107" spans="2:23" ht="24.6" customHeight="1">
       <c r="B107" s="10"/>
       <c r="C107" s="11"/>
       <c r="D107" s="11"/>
@@ -3423,7 +3392,7 @@
       <c r="V107" s="12"/>
       <c r="W107" s="12"/>
     </row>
-    <row r="108" spans="2:23" ht="24.5" customHeight="1">
+    <row r="108" spans="2:23" ht="24.6" customHeight="1">
       <c r="B108" s="10"/>
       <c r="C108" s="11"/>
       <c r="D108" s="11"/>
@@ -3447,7 +3416,7 @@
       <c r="V108" s="12"/>
       <c r="W108" s="12"/>
     </row>
-    <row r="109" spans="2:23" ht="24.5" customHeight="1">
+    <row r="109" spans="2:23" ht="24.6" customHeight="1">
       <c r="B109" s="10"/>
       <c r="C109" s="11"/>
       <c r="D109" s="11"/>
@@ -3471,7 +3440,7 @@
       <c r="V109" s="12"/>
       <c r="W109" s="12"/>
     </row>
-    <row r="110" spans="2:23" ht="24.5" customHeight="1">
+    <row r="110" spans="2:23" ht="24.6" customHeight="1">
       <c r="B110" s="10"/>
       <c r="C110" s="11"/>
       <c r="D110" s="11"/>
@@ -3495,7 +3464,7 @@
       <c r="V110" s="12"/>
       <c r="W110" s="12"/>
     </row>
-    <row r="111" spans="2:23" ht="24.5" customHeight="1">
+    <row r="111" spans="2:23" ht="24.6" customHeight="1">
       <c r="B111" s="10"/>
       <c r="C111" s="11"/>
       <c r="D111" s="11"/>
@@ -3519,7 +3488,7 @@
       <c r="V111" s="12"/>
       <c r="W111" s="12"/>
     </row>
-    <row r="112" spans="2:23" ht="24.5" customHeight="1">
+    <row r="112" spans="2:23" ht="24.6" customHeight="1">
       <c r="B112" s="10"/>
       <c r="C112" s="11"/>
       <c r="D112" s="11"/>
@@ -3543,7 +3512,7 @@
       <c r="V112" s="12"/>
       <c r="W112" s="12"/>
     </row>
-    <row r="113" spans="2:23" ht="24.5" customHeight="1">
+    <row r="113" spans="2:23" ht="24.6" customHeight="1">
       <c r="B113" s="10"/>
       <c r="C113" s="11"/>
       <c r="D113" s="11"/>
@@ -3567,7 +3536,7 @@
       <c r="V113" s="12"/>
       <c r="W113" s="12"/>
     </row>
-    <row r="114" spans="2:23" ht="24.5" customHeight="1">
+    <row r="114" spans="2:23" ht="24.6" customHeight="1">
       <c r="B114" s="10"/>
       <c r="C114" s="11"/>
       <c r="D114" s="11"/>
